--- a/output/fit_clients/fit_round_121.xlsx
+++ b/output/fit_clients/fit_round_121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2098133783.689661</v>
+        <v>1933769964.334612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08970428439654048</v>
+        <v>0.08797802168924675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03275992769285355</v>
+        <v>0.04352932847093102</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1049066900.631284</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2427004778.677414</v>
+        <v>1971465813.873244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1788574332404552</v>
+        <v>0.1380648539354423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04553157516659328</v>
+        <v>0.04450449738992869</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1213502495.46595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3222673221.855458</v>
+        <v>4556323267.411518</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1445849966782275</v>
+        <v>0.1606016467192673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03577675373696027</v>
+        <v>0.0345763607723298</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1611336569.987987</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2916240141.662404</v>
+        <v>3466450955.318219</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06713667380459226</v>
+        <v>0.06951868819069001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04407638358094509</v>
+        <v>0.03931588221761921</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1458120146.169517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2403858571.48859</v>
+        <v>2660812817.129014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1419282923331362</v>
+        <v>0.1329237687158217</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05581926875352177</v>
+        <v>0.04351540380996727</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1201929271.582529</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2399380034.527733</v>
+        <v>2205616076.235142</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09875076321414418</v>
+        <v>0.08263944094679168</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04951659603197397</v>
+        <v>0.0366500095770619</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1199690039.968272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2731854381.220186</v>
+        <v>3537331425.448143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499966186288771</v>
+        <v>0.1773197452956808</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02468547736407238</v>
+        <v>0.03216717665929798</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1365927220.659661</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1885478437.780089</v>
+        <v>1534475731.637823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1222857053885086</v>
+        <v>0.1963942289640717</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03254335501014498</v>
+        <v>0.02358591475775604</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>942739261.3328754</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4033145254.194713</v>
+        <v>5515718372.116129</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1544290811343574</v>
+        <v>0.1451774474383205</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03400486677243079</v>
+        <v>0.04573893078401573</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2016572651.515479</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3604578734.602343</v>
+        <v>2783179888.180649</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1858723325376715</v>
+        <v>0.1266380960065093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03087102813433286</v>
+        <v>0.04638294433967324</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>50</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1802289352.339245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3295338738.111643</v>
+        <v>2499841625.883208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1400148079594764</v>
+        <v>0.1359502535929718</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05139650528515641</v>
+        <v>0.05364358422457369</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1647669414.052775</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4144348748.019973</v>
+        <v>3713869017.410469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07946990119412012</v>
+        <v>0.101010236169991</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0190533642657395</v>
+        <v>0.0240547640122827</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>41</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2072174421.560076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3686285065.26756</v>
+        <v>3069679214.297789</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1244251467485913</v>
+        <v>0.1756003693586051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0321974915700278</v>
+        <v>0.03871149534641303</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1843142517.337266</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180205841.449299</v>
+        <v>1139218487.509782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1048223569872002</v>
+        <v>0.08384361723254496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03448194286678173</v>
+        <v>0.04762626930505741</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590102933.6700088</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2861437212.103871</v>
+        <v>1745880994.334061</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09991331620818346</v>
+        <v>0.1052719751607814</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05103925971536385</v>
+        <v>0.04892016093454148</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1430718604.511122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4960446384.513356</v>
+        <v>4459676251.247702</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1243097684850061</v>
+        <v>0.1105812028165154</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03701416232930757</v>
+        <v>0.0423197081671482</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2480223179.277693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3478120613.628465</v>
+        <v>2768343377.288218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1612772218924315</v>
+        <v>0.1745250647288201</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02663972343870113</v>
+        <v>0.02482528619749249</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1739060302.408201</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022148169.858394</v>
+        <v>1114707448.852296</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1868142617751395</v>
+        <v>0.135173850477704</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01778781659180598</v>
+        <v>0.02484915458911397</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>511074119.4918647</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2769771445.949712</v>
+        <v>2504243769.169674</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1094482743571289</v>
+        <v>0.1451882166284234</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01959869429432267</v>
+        <v>0.02290578143146443</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1384885667.278989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1816142284.629596</v>
+        <v>2137511662.716105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0653415052609749</v>
+        <v>0.1011327639612531</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03706175552625157</v>
+        <v>0.03678868494003826</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>908071195.8085613</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3552852461.125097</v>
+        <v>3957652566.4578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1207038990732082</v>
+        <v>0.1038082806493711</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04921524258779813</v>
+        <v>0.04978517360771779</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1776426258.933499</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1170067430.408007</v>
+        <v>1045639249.038211</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1592488615410019</v>
+        <v>0.1230330202215956</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03448454874942483</v>
+        <v>0.0443844297945134</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>585033756.6796421</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2579393728.636871</v>
+        <v>4062676462.056793</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1044780020374395</v>
+        <v>0.102265335074816</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03378069928478017</v>
+        <v>0.03428046776606597</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1289696927.799584</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>981936384.2363138</v>
+        <v>1344950724.725517</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223969545201816</v>
+        <v>0.09799487668865993</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02122362037253617</v>
+        <v>0.02890792188846333</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>490968260.2005556</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1354760306.543489</v>
+        <v>927599751.487159</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08479932457276058</v>
+        <v>0.1132977945162273</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02603009274447709</v>
+        <v>0.02902785393727397</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>677380212.1806005</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3864142272.582777</v>
+        <v>3459810217.701922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1432971850017777</v>
+        <v>0.1208746559191731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02658497249398101</v>
+        <v>0.02108691451632831</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1932071153.116222</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2807380739.82667</v>
+        <v>3213499649.786891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1353377829526167</v>
+        <v>0.1266962647194189</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03191990174306588</v>
+        <v>0.03639101143045995</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1403690364.35219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5633607920.143096</v>
+        <v>5588659126.155053</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1325486831992288</v>
+        <v>0.1203835683767729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03651202049331818</v>
+        <v>0.04290388464289563</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2816803863.714788</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596332723.410545</v>
+        <v>2042415391.189378</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09902759126169318</v>
+        <v>0.1085190496640937</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02457285790790899</v>
+        <v>0.02812331986740062</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>798166353.1704297</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1323228279.696817</v>
+        <v>903154413.1680286</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1003905219196558</v>
+        <v>0.1024501535662953</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05255238126507224</v>
+        <v>0.04092418708777803</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>661614062.2666042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1543060730.354898</v>
+        <v>1462168323.36974</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07665256940904173</v>
+        <v>0.07344074640545986</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02793318022640634</v>
+        <v>0.03571995871134028</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>771530442.4106704</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2692565653.762204</v>
+        <v>2714903373.901157</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1736223346830624</v>
+        <v>0.171355179737596</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05694711385506931</v>
+        <v>0.05347936653589487</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>35</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1346282848.63988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1348056696.415479</v>
+        <v>1549242829.055484</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09937095580002496</v>
+        <v>0.1206144382330716</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02586533500067851</v>
+        <v>0.02012219709757992</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>674028328.912257</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>838656062.4765495</v>
+        <v>839875413.274577</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1007406095276157</v>
+        <v>0.1155772135187668</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03447653416533188</v>
+        <v>0.04166692531427726</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>419328085.1559531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2309894062.313003</v>
+        <v>1997055376.839894</v>
       </c>
       <c r="F36" t="n">
-        <v>0.125819284439558</v>
+        <v>0.1491655159178021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02305737139994188</v>
+        <v>0.02569480077518982</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1154947068.322104</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1940977691.406121</v>
+        <v>2844547786.587149</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07791897695905077</v>
+        <v>0.08588375704599074</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04049744101229412</v>
+        <v>0.03359236091817441</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>970488864.8352597</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1865205994.193613</v>
+        <v>1790511418.523829</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09973682311117024</v>
+        <v>0.1034088593862929</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02491664898939457</v>
+        <v>0.03485777759439872</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>932602994.7095957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1718069323.666895</v>
+        <v>2068933376.312928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705844712960888</v>
+        <v>0.1377407482249447</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02404462849849761</v>
+        <v>0.0223045279404057</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>859034699.1199871</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1593156246.98771</v>
+        <v>1487811240.21649</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09975565611675949</v>
+        <v>0.1293116522694509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03687189919285975</v>
+        <v>0.0546821197568164</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>796578066.3239472</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2348565747.015641</v>
+        <v>2308170620.622722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1328192168804478</v>
+        <v>0.1209439997358</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04047981880074151</v>
+        <v>0.04168745874989457</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1174282913.540613</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3278028421.288571</v>
+        <v>3745726494.710897</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1210767264354728</v>
+        <v>0.1262307740311839</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04536838381850979</v>
+        <v>0.03577579094512739</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1639014190.183022</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2518137970.177085</v>
+        <v>2083704241.038856</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1909755319934748</v>
+        <v>0.1951001836835494</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01713937369772035</v>
+        <v>0.01768798493534469</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1259069031.87163</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1481914883.117732</v>
+        <v>2304970822.256174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08664641535933612</v>
+        <v>0.07925497033949201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03668230741765641</v>
+        <v>0.03502133431198806</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>740957444.4679818</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2022148569.10344</v>
+        <v>2042566865.678995</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1656666342112902</v>
+        <v>0.12303677467091</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04304957868269164</v>
+        <v>0.03439460646751611</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1011074277.631044</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5083786854.349753</v>
+        <v>4518873395.488241</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1506550742101831</v>
+        <v>0.1525036980574979</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05851439177841439</v>
+        <v>0.03708606032907819</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2541893458.712161</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4007628183.208295</v>
+        <v>4270967144.499127</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1351532200391422</v>
+        <v>0.1848091076732732</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03592665712659874</v>
+        <v>0.04334450211399605</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>32</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2003814091.14679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3105078847.429669</v>
+        <v>4621477720.838969</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07635132391776012</v>
+        <v>0.09723584022373412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03310107298816903</v>
+        <v>0.03375366828548257</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1552539510.018198</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1424966852.995738</v>
+        <v>1224513424.145936</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1923719785943825</v>
+        <v>0.175148967516378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03510329099140859</v>
+        <v>0.03779269901385219</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>712483470.1207695</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3107756736.654391</v>
+        <v>3082954950.328646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.160863688359994</v>
+        <v>0.1687201502314274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04161453937502507</v>
+        <v>0.0338830561817018</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>41</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1553878420.433907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1336240005.715952</v>
+        <v>948389469.3750799</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1423319832102204</v>
+        <v>0.1910733925284585</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03826187751938723</v>
+        <v>0.05274801803790929</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>668120032.2857488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4873183940.322273</v>
+        <v>5013657981.208889</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1249335273479945</v>
+        <v>0.1145723230292461</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05653463399742938</v>
+        <v>0.0544765625434631</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2436591975.195962</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3759543655.021318</v>
+        <v>3021053499.996196</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1452925427066011</v>
+        <v>0.1754925239313516</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02929641143075414</v>
+        <v>0.02770891216411939</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>35</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1879771807.46248</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3470746286.300647</v>
+        <v>4238580568.104565</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1179053840566541</v>
+        <v>0.150804764639316</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03690983283824188</v>
+        <v>0.0482797682452286</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>41</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1735373165.624124</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3618517775.982312</v>
+        <v>3133047695.55125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1764699334452334</v>
+        <v>0.2183545433539458</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02825894628842837</v>
+        <v>0.02344486924852396</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1809258846.02948</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1762641414.611384</v>
+        <v>1753444463.846241</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1197951712757091</v>
+        <v>0.1250703935332305</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04263303422270421</v>
+        <v>0.04815823383059991</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>881320710.5936337</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3058750370.925195</v>
+        <v>4335440606.842914</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1500749317019441</v>
+        <v>0.1241656859490926</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02675025033418937</v>
+        <v>0.01995501636301951</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>38</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1529375194.751838</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1837460766.569026</v>
+        <v>1305434263.328718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1780608444124684</v>
+        <v>0.185567431967815</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0250421063624765</v>
+        <v>0.02457049063653272</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>918730383.5828509</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4270526297.228863</v>
+        <v>4933144497.424846</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1122865971923708</v>
+        <v>0.08982741543665655</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0412143276520943</v>
+        <v>0.04196947655297678</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2135263111.458246</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2609882144.242796</v>
+        <v>3670542586.643177</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1426997899604049</v>
+        <v>0.2018382586429832</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0273081469015204</v>
+        <v>0.02810094411881527</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>38</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1304941101.510368</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2395034288.552394</v>
+        <v>3091892336.059647</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1300955190511907</v>
+        <v>0.1455084431011223</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02216966933116078</v>
+        <v>0.02426009045699715</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1197517181.736564</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1436730223.142498</v>
+        <v>1607827945.14594</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1384227061971199</v>
+        <v>0.1854744869417431</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04011258725413345</v>
+        <v>0.04409338920984358</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>718365085.0950325</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3642540266.502712</v>
+        <v>3900457222.838222</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07524266812338487</v>
+        <v>0.1022732595068532</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04180828939743864</v>
+        <v>0.03983419860017211</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1821270211.534744</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5514483772.878575</v>
+        <v>4498819889.623471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1277900385605427</v>
+        <v>0.1428740424924237</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03556617526873623</v>
+        <v>0.03425325607891945</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2757242028.77002</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5835308607.975301</v>
+        <v>4701647762.42516</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1208341528859432</v>
+        <v>0.1253656058471163</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02086506495762854</v>
+        <v>0.02670533525326408</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2917654213.00434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4849818937.910311</v>
+        <v>5699304901.335584</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1189173988984966</v>
+        <v>0.1161515853987815</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04590747533675539</v>
+        <v>0.04180625318191955</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2424909488.018444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2623429275.828617</v>
+        <v>3138128512.074551</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07670698111280505</v>
+        <v>0.07618188378739563</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03630132906420633</v>
+        <v>0.03751236014291381</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1311714688.033177</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4639674497.310445</v>
+        <v>3685094119.004982</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09809495696871952</v>
+        <v>0.1400201290168471</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05100306916010628</v>
+        <v>0.04133443106906241</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>38</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2319837283.167245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1798143861.69768</v>
+        <v>1871585039.833995</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1148025542796251</v>
+        <v>0.1769692140963464</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04917226290594112</v>
+        <v>0.03870192561958592</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>899071909.6408561</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3128162136.619169</v>
+        <v>3442142307.003561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09668276082232251</v>
+        <v>0.07465269427905263</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03079452929300262</v>
+        <v>0.03537724109859278</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1564081053.549145</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5490439240.263087</v>
+        <v>5617467660.246632</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1368170114787048</v>
+        <v>0.1759305394337021</v>
       </c>
       <c r="G71" t="n">
-        <v>0.029238177296142</v>
+        <v>0.02166072331302602</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2745219762.408954</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2115933614.879965</v>
+        <v>1607618005.343462</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08138871452106516</v>
+        <v>0.07682605337761646</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04124102432719902</v>
+        <v>0.03953254403208345</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1057966735.031817</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2446289423.95166</v>
+        <v>3562438270.411675</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09309798283001885</v>
+        <v>0.07361971430197482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04363824332251295</v>
+        <v>0.04869589300467091</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>47</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1223144758.602129</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3775610198.727916</v>
+        <v>2808067266.517251</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1522120163451368</v>
+        <v>0.1598863347412252</v>
       </c>
       <c r="G74" t="n">
-        <v>0.033865490737387</v>
+        <v>0.02161173094240587</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>41</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1887805097.661785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1721096233.221212</v>
+        <v>1568482104.776101</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1048414209257953</v>
+        <v>0.1124115963799552</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02431839873159767</v>
+        <v>0.02922438525337322</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>860548106.8513974</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4403045768.875775</v>
+        <v>3749249132.644183</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09098711559621651</v>
+        <v>0.1210432075002694</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03340400754247445</v>
+        <v>0.02248622056751394</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2201522886.029424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1892225969.117347</v>
+        <v>2177521804.489255</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1472068584503285</v>
+        <v>0.1627752326494185</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02130495773663019</v>
+        <v>0.02827427905993171</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>946113030.1091481</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4721931496.432345</v>
+        <v>4011736424.525447</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1197958124597587</v>
+        <v>0.1234012797922211</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04761769549572464</v>
+        <v>0.05334453533571269</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>43</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2360965662.238521</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1314957073.242927</v>
+        <v>1485375118.02768</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1686867167047646</v>
+        <v>0.1093856471203779</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02957838948255961</v>
+        <v>0.04044492068189887</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>657478538.3768122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3823702497.894191</v>
+        <v>5242296603.115846</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06735119484911231</v>
+        <v>0.07203463699670522</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02886564977324635</v>
+        <v>0.03766824148954222</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1911851239.602992</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3716661526.505941</v>
+        <v>4530013284.113593</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09331090239367479</v>
+        <v>0.1124969522311376</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02277344960202691</v>
+        <v>0.02926435136167127</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1858330715.878566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3697011210.627607</v>
+        <v>4674867831.359273</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1890339704993959</v>
+        <v>0.185184344440694</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02711692345545017</v>
+        <v>0.02887259600184247</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1848505661.95108</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2192873183.34085</v>
+        <v>2242919779.927667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1175844441479037</v>
+        <v>0.1246201577500956</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03408002367868318</v>
+        <v>0.0311975389544811</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1096436600.968201</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1622398283.127696</v>
+        <v>2326241547.859132</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1188223938086773</v>
+        <v>0.09542237195604517</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04993012711764586</v>
+        <v>0.04688442315361646</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>811199201.8438469</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3378214548.231243</v>
+        <v>2830400177.067863</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1392872118727582</v>
+        <v>0.1551870727845154</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05336362653952524</v>
+        <v>0.04507081199653541</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1689107375.954485</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2644980411.133638</v>
+        <v>1734164892.152221</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1264804629830645</v>
+        <v>0.1154964838903218</v>
       </c>
       <c r="G86" t="n">
-        <v>0.026783481698737</v>
+        <v>0.02103187116821483</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1322490322.826465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1463496256.348964</v>
+        <v>989454475.9207665</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1305637599741958</v>
+        <v>0.1367429325243167</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03690996661856561</v>
+        <v>0.04356223946318152</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>731748251.2435335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2925560972.901655</v>
+        <v>2376434644.244209</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1634704153064845</v>
+        <v>0.1349433143619685</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03738222648746813</v>
+        <v>0.03974706028718587</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>48</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1462780509.481017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2142050367.432915</v>
+        <v>2666948757.300776</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1011346220015947</v>
+        <v>0.1528476511774427</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02948753200869584</v>
+        <v>0.03386453094950151</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1071025284.661897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1921926203.313493</v>
+        <v>1516466078.57468</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1123508835496752</v>
+        <v>0.1038323504995916</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04970338789613325</v>
+        <v>0.04551286741430431</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>960963157.5606567</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1359405314.19879</v>
+        <v>2070972276.248521</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1248191541361737</v>
+        <v>0.1707225777879347</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05955163685116057</v>
+        <v>0.05871984456617168</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>679702714.6997058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2676870290.330712</v>
+        <v>2205482701.563325</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09648281524005789</v>
+        <v>0.09541885440108522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0349712881970411</v>
+        <v>0.03550575633039059</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>28</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1338435142.429046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3447474456.485528</v>
+        <v>3431834676.842982</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09160719897818322</v>
+        <v>0.1158562540769267</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04846012846142932</v>
+        <v>0.04649372177329233</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1723737264.508865</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2402135353.837457</v>
+        <v>2040116574.249421</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1463129108557908</v>
+        <v>0.1261324085031565</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03741101734975777</v>
+        <v>0.04232185111008123</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1201067727.616204</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3204123198.424506</v>
+        <v>2881721784.450256</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1029512723343417</v>
+        <v>0.106011374200914</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0501210620699083</v>
+        <v>0.0358763990520074</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>28</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1602061584.025162</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1968986458.707114</v>
+        <v>1937837791.124935</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1129415176873206</v>
+        <v>0.1016956984276211</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04096792414861651</v>
+        <v>0.03348578980809385</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>984493219.6010853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5384809037.944814</v>
+        <v>4492180756.566966</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1645992857302249</v>
+        <v>0.1276907224990983</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0254258035934683</v>
+        <v>0.02224506946942006</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>39</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2692404686.655839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3254650884.60027</v>
+        <v>3738286590.786783</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144532189083066</v>
+        <v>0.1099869725241047</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03026814918347878</v>
+        <v>0.02006156553337713</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>32</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1627325444.211662</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2632129314.12723</v>
+        <v>3053243854.721224</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09888497631384981</v>
+        <v>0.125112744013856</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03014359536679402</v>
+        <v>0.02677054106650373</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>37</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1316064616.334601</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4513466669.770767</v>
+        <v>3619179379.288146</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1161459332784213</v>
+        <v>0.1711950416626871</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02065159989959434</v>
+        <v>0.01904193840707076</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>37</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2256733446.486645</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3123885895.40799</v>
+        <v>2230631848.577082</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1654561235702423</v>
+        <v>0.1698921819754606</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05377798611708464</v>
+        <v>0.05439183041652598</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>50</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1561943053.06873</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_121.xlsx
+++ b/output/fit_clients/fit_round_121.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1933769964.334612</v>
+        <v>2320943477.340192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08797802168924675</v>
+        <v>0.07949706205249038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04352932847093102</v>
+        <v>0.02790017566193209</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1971465813.873244</v>
+        <v>2148123904.437124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1380648539354423</v>
+        <v>0.1391249283333188</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04450449738992869</v>
+        <v>0.0464632278670529</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4556323267.411518</v>
+        <v>4375892503.58577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1606016467192673</v>
+        <v>0.141332453616052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0345763607723298</v>
+        <v>0.03115356003815616</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3466450955.318219</v>
+        <v>2589302278.180647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06951868819069001</v>
+        <v>0.08044249639123843</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03931588221761921</v>
+        <v>0.032811665205883</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2660812817.129014</v>
+        <v>2343651141.494238</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1329237687158217</v>
+        <v>0.1179846275062896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04351540380996727</v>
+        <v>0.05307281857373916</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2205616076.235142</v>
+        <v>2979245514.060807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08263944094679168</v>
+        <v>0.09444093667549815</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0366500095770619</v>
+        <v>0.04899361162190234</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3537331425.448143</v>
+        <v>3669838031.099464</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1773197452956808</v>
+        <v>0.1767591550443602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03216717665929798</v>
+        <v>0.02157253243665041</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1534475731.637823</v>
+        <v>1704736811.964067</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1963942289640717</v>
+        <v>0.1459133030044771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02358591475775604</v>
+        <v>0.03316665257469403</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5515718372.116129</v>
+        <v>5228338309.100869</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1451774474383205</v>
+        <v>0.2110473249890557</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04573893078401573</v>
+        <v>0.03538048275392759</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2783179888.180649</v>
+        <v>3509610857.553456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1266380960065093</v>
+        <v>0.1490592094871213</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04638294433967324</v>
+        <v>0.0383415881623545</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2499841625.883208</v>
+        <v>2363486312.164994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1359502535929718</v>
+        <v>0.1974429333507527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05364358422457369</v>
+        <v>0.035732327968702</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3713869017.410469</v>
+        <v>4854512651.116069</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101010236169991</v>
+        <v>0.07040791888837929</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0240547640122827</v>
+        <v>0.02585409311538642</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3069679214.297789</v>
+        <v>3567474828.814959</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1756003693586051</v>
+        <v>0.1220079671981505</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03871149534641303</v>
+        <v>0.04083518946517039</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1139218487.509782</v>
+        <v>1764501364.074085</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08384361723254496</v>
+        <v>0.1048784269730147</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04762626930505741</v>
+        <v>0.04152179664906969</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1745880994.334061</v>
+        <v>2490110970.177176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052719751607814</v>
+        <v>0.07439762555457724</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04892016093454148</v>
+        <v>0.03876362597918605</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4459676251.247702</v>
+        <v>3424383965.292643</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1105812028165154</v>
+        <v>0.1296313801336213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0423197081671482</v>
+        <v>0.03662062005916915</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2768343377.288218</v>
+        <v>3079281638.888378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1745250647288201</v>
+        <v>0.1611941380117431</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02482528619749249</v>
+        <v>0.03162282888028042</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1114707448.852296</v>
+        <v>1326663367.192873</v>
       </c>
       <c r="F19" t="n">
-        <v>0.135173850477704</v>
+        <v>0.1619958415304157</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02484915458911397</v>
+        <v>0.02539889408618093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2504243769.169674</v>
+        <v>2782067554.421224</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1451882166284234</v>
+        <v>0.1227642470732015</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02290578143146443</v>
+        <v>0.02352289262424347</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2137511662.716105</v>
+        <v>1678170216.668878</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1011327639612531</v>
+        <v>0.07692274181979664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03678868494003826</v>
+        <v>0.03388761082698574</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3957652566.4578</v>
+        <v>3595315692.728352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1038082806493711</v>
+        <v>0.1112496801305188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04978517360771779</v>
+        <v>0.04953048925410738</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1045639249.038211</v>
+        <v>1153532609.410714</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1230330202215956</v>
+        <v>0.1560027778310235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0443844297945134</v>
+        <v>0.03304747318797105</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4062676462.056793</v>
+        <v>3080725387.573578</v>
       </c>
       <c r="F24" t="n">
-        <v>0.102265335074816</v>
+        <v>0.1369474928450411</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03428046776606597</v>
+        <v>0.03347731509565748</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1344950724.725517</v>
+        <v>1473250255.137096</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09799487668865993</v>
+        <v>0.1076084255429584</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02890792188846333</v>
+        <v>0.02267028381766194</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927599751.487159</v>
+        <v>1242523739.970331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1132977945162273</v>
+        <v>0.1199459979840582</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02902785393727397</v>
+        <v>0.02370502103597103</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3459810217.701922</v>
+        <v>3471384226.366729</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1208746559191731</v>
+        <v>0.1391081339501834</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02108691451632831</v>
+        <v>0.02201785226189426</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3213499649.786891</v>
+        <v>3379949139.66411</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1266962647194189</v>
+        <v>0.1370679429091344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03639101143045995</v>
+        <v>0.03721249994471073</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5588659126.155053</v>
+        <v>4286648278.302899</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1203835683767729</v>
+        <v>0.1121812863648173</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04290388464289563</v>
+        <v>0.04508421163934228</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2042415391.189378</v>
+        <v>2353141189.20618</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1085190496640937</v>
+        <v>0.1223353213505744</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02812331986740062</v>
+        <v>0.02449161409218324</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>903154413.1680286</v>
+        <v>934982363.888965</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1024501535662953</v>
+        <v>0.07980164283936059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04092418708777803</v>
+        <v>0.04242496215049131</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462168323.36974</v>
+        <v>1688816069.971018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07344074640545986</v>
+        <v>0.1154780430892566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03571995871134028</v>
+        <v>0.03825517510146926</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2714903373.901157</v>
+        <v>2757555208.832049</v>
       </c>
       <c r="F33" t="n">
-        <v>0.171355179737596</v>
+        <v>0.1439173855704405</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05347936653589487</v>
+        <v>0.05405421197644768</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1549242829.055484</v>
+        <v>1544565215.272366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1206144382330716</v>
+        <v>0.1213673419565799</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02012219709757992</v>
+        <v>0.02569521219513025</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>839875413.274577</v>
+        <v>950218493.71482</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1155772135187668</v>
+        <v>0.1146473440748937</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04166692531427726</v>
+        <v>0.033478172746689</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1997055376.839894</v>
+        <v>3139372034.700105</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1491655159178021</v>
+        <v>0.1255780825150327</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02569480077518982</v>
+        <v>0.02870328364809765</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2844547786.587149</v>
+        <v>1907544732.072549</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08588375704599074</v>
+        <v>0.08677227455898032</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03359236091817441</v>
+        <v>0.03504765341373894</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1790511418.523829</v>
+        <v>1408988532.90952</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1034088593862929</v>
+        <v>0.1102553360881958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03485777759439872</v>
+        <v>0.02615136160059985</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2068933376.312928</v>
+        <v>1989056647.186786</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1377407482249447</v>
+        <v>0.1453464155670728</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0223045279404057</v>
+        <v>0.02153873720738746</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1487811240.21649</v>
+        <v>1171731924.912456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1293116522694509</v>
+        <v>0.1547930768600194</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0546821197568164</v>
+        <v>0.04583922367250497</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2308170620.622722</v>
+        <v>2087575787.332007</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1209439997358</v>
+        <v>0.1035968169514168</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04168745874989457</v>
+        <v>0.0420705617389044</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3745726494.710897</v>
+        <v>3869893322.675068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1262307740311839</v>
+        <v>0.1222952671004982</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03577579094512739</v>
+        <v>0.04063103494465993</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2083704241.038856</v>
+        <v>2239414070.682238</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1951001836835494</v>
+        <v>0.1875317903190615</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01768798493534469</v>
+        <v>0.02272304592028747</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2304970822.256174</v>
+        <v>1488331725.032564</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07925497033949201</v>
+        <v>0.06894078775602955</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03502133431198806</v>
+        <v>0.02760746114516981</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2042566865.678995</v>
+        <v>2355512273.106531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.12303677467091</v>
+        <v>0.1944032445861665</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03439460646751611</v>
+        <v>0.03954664640922096</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4518873395.488241</v>
+        <v>4811813306.500627</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1525036980574979</v>
+        <v>0.1166281505946702</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03708606032907819</v>
+        <v>0.03707704644393384</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4270967144.499127</v>
+        <v>4910864600.585004</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1848091076732732</v>
+        <v>0.156270233394157</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04334450211399605</v>
+        <v>0.05052379534785871</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4621477720.838969</v>
+        <v>3203956507.192883</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09723584022373412</v>
+        <v>0.09826752553777095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03375366828548257</v>
+        <v>0.0386311805021869</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1224513424.145936</v>
+        <v>1638925858.243619</v>
       </c>
       <c r="F49" t="n">
-        <v>0.175148967516378</v>
+        <v>0.1947062560405518</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03779269901385219</v>
+        <v>0.03830882095837496</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3082954950.328646</v>
+        <v>2565546226.75623</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1687201502314274</v>
+        <v>0.1274303058744759</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0338830561817018</v>
+        <v>0.04349822299020597</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>948389469.3750799</v>
+        <v>1198319459.01468</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1910733925284585</v>
+        <v>0.1503383674038428</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05274801803790929</v>
+        <v>0.0532071277169673</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5013657981.208889</v>
+        <v>3676251729.830747</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1145723230292461</v>
+        <v>0.1029353852453908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0544765625434631</v>
+        <v>0.04024047036586573</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3021053499.996196</v>
+        <v>2442330689.04914</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1754925239313516</v>
+        <v>0.1514485324236507</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02770891216411939</v>
+        <v>0.03214592885393899</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4238580568.104565</v>
+        <v>4332163082.045661</v>
       </c>
       <c r="F54" t="n">
-        <v>0.150804764639316</v>
+        <v>0.141021959245278</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0482797682452286</v>
+        <v>0.04353544559229839</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3133047695.55125</v>
+        <v>4291016407.909949</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2183545433539458</v>
+        <v>0.1986539629537762</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02344486924852396</v>
+        <v>0.0308304146069852</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1753444463.846241</v>
+        <v>1612908716.147382</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1250703935332305</v>
+        <v>0.1106688114184287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04815823383059991</v>
+        <v>0.03720743569991297</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4335440606.842914</v>
+        <v>4009074204.422905</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1241656859490926</v>
+        <v>0.182610754105784</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01995501636301951</v>
+        <v>0.01707072940622821</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1305434263.328718</v>
+        <v>1463866450.381857</v>
       </c>
       <c r="F58" t="n">
-        <v>0.185567431967815</v>
+        <v>0.2003581256637806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02457049063653272</v>
+        <v>0.0294259613469585</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4933144497.424846</v>
+        <v>3378617335.397251</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08982741543665655</v>
+        <v>0.1210959908107195</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04196947655297678</v>
+        <v>0.0352155975705235</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3670542586.643177</v>
+        <v>3717583944.920326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2018382586429832</v>
+        <v>0.1808530271678785</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02810094411881527</v>
+        <v>0.02987774721018179</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3091892336.059647</v>
+        <v>2194025860.045515</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1455084431011223</v>
+        <v>0.147917854814286</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02426009045699715</v>
+        <v>0.03129073804273146</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1607827945.14594</v>
+        <v>1336384388.710266</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1854744869417431</v>
+        <v>0.1816985923128856</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04409338920984358</v>
+        <v>0.03443891877362742</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3900457222.838222</v>
+        <v>3771724582.888532</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1022732595068532</v>
+        <v>0.08064290367908666</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03983419860017211</v>
+        <v>0.04646983809634722</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4498819889.623471</v>
+        <v>4448889829.332432</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1428740424924237</v>
+        <v>0.1376135995719761</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03425325607891945</v>
+        <v>0.0255344450154455</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4701647762.42516</v>
+        <v>4740871431.050706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1253656058471163</v>
+        <v>0.1295277429842812</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02670533525326408</v>
+        <v>0.02946734713383575</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5699304901.335584</v>
+        <v>4798724779.427068</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1161515853987815</v>
+        <v>0.1256434921201893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04180625318191955</v>
+        <v>0.04105811603913069</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3138128512.074551</v>
+        <v>2301386436.381709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07618188378739563</v>
+        <v>0.08878524913343568</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03751236014291381</v>
+        <v>0.05031413794514593</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3685094119.004982</v>
+        <v>3800763347.419625</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1400201290168471</v>
+        <v>0.1216794884243214</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04133443106906241</v>
+        <v>0.03412436098257964</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1871585039.833995</v>
+        <v>1553811761.467545</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1769692140963464</v>
+        <v>0.1112108211575261</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03870192561958592</v>
+        <v>0.05998257917810053</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3442142307.003561</v>
+        <v>3537407894.00561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07465269427905263</v>
+        <v>0.06794742834873078</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03537724109859278</v>
+        <v>0.04058576718305427</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5617467660.246632</v>
+        <v>4046210187.160144</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1759305394337021</v>
+        <v>0.1324515837794644</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02166072331302602</v>
+        <v>0.02775849820260933</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1607618005.343462</v>
+        <v>1971834994.568613</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07682605337761646</v>
+        <v>0.07814834513590817</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03953254403208345</v>
+        <v>0.04607457568474584</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3562438270.411675</v>
+        <v>2703468891.208465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07361971430197482</v>
+        <v>0.1091980059043647</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04869589300467091</v>
+        <v>0.05270896550970024</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2808067266.517251</v>
+        <v>2645545033.17812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1598863347412252</v>
+        <v>0.1248166648907289</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02161173094240587</v>
+        <v>0.02268164503319458</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1568482104.776101</v>
+        <v>2153678190.138993</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1124115963799552</v>
+        <v>0.1048954430498384</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02922438525337322</v>
+        <v>0.03685773654184086</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3749249132.644183</v>
+        <v>3692807068.490069</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1210432075002694</v>
+        <v>0.1155015945348987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02248622056751394</v>
+        <v>0.02453907396134506</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2177521804.489255</v>
+        <v>1675653962.396698</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1627752326494185</v>
+        <v>0.1799014382668544</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02827427905993171</v>
+        <v>0.02184919094084843</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4011736424.525447</v>
+        <v>2935831364.459005</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1234012797922211</v>
+        <v>0.1223330598482885</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05334453533571269</v>
+        <v>0.03667384033245197</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1485375118.02768</v>
+        <v>1359587909.189605</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093856471203779</v>
+        <v>0.1317797369192729</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04044492068189887</v>
+        <v>0.03364413057106074</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5242296603.115846</v>
+        <v>4321338425.290318</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07203463699670522</v>
+        <v>0.1072614879659054</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03766824148954222</v>
+        <v>0.02879198679575926</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4530013284.113593</v>
+        <v>4308369495.556216</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124969522311376</v>
+        <v>0.1298981004469401</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02926435136167127</v>
+        <v>0.02113785128684065</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4674867831.359273</v>
+        <v>5426462484.188321</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185184344440694</v>
+        <v>0.1949041545700854</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02887259600184247</v>
+        <v>0.01785299590240092</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2242919779.927667</v>
+        <v>2144665304.48425</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1246201577500956</v>
+        <v>0.1288999227223204</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0311975389544811</v>
+        <v>0.03693419945103119</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2326241547.859132</v>
+        <v>2196559473.626424</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09542237195604517</v>
+        <v>0.09099984294793526</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04688442315361646</v>
+        <v>0.04756133271659242</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2830400177.067863</v>
+        <v>2940474065.962027</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1551870727845154</v>
+        <v>0.1353619466663952</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04507081199653541</v>
+        <v>0.03871500950190923</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1734164892.152221</v>
+        <v>2065821115.281235</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1154964838903218</v>
+        <v>0.1136254250264453</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02103187116821483</v>
+        <v>0.01869665876415791</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>989454475.9207665</v>
+        <v>1147825195.109519</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1367429325243167</v>
+        <v>0.1445361473944527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04356223946318152</v>
+        <v>0.02794107596391764</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2376434644.244209</v>
+        <v>2314317496.186922</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1349433143619685</v>
+        <v>0.1641967937065435</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03974706028718587</v>
+        <v>0.03028531111218428</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2666948757.300776</v>
+        <v>2313301151.124722</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1528476511774427</v>
+        <v>0.1419609514425699</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03386453094950151</v>
+        <v>0.03941349882975326</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1516466078.57468</v>
+        <v>1697772897.841481</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1038323504995916</v>
+        <v>0.09698117086199139</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04551286741430431</v>
+        <v>0.04012447415592216</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2070972276.248521</v>
+        <v>1823076920.274401</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1707225777879347</v>
+        <v>0.1748087371978898</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05871984456617168</v>
+        <v>0.05723694362966508</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2205482701.563325</v>
+        <v>2893054127.363364</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09541885440108522</v>
+        <v>0.07463084575418578</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03550575633039059</v>
+        <v>0.04073331760430302</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3431834676.842982</v>
+        <v>3183911621.564287</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158562540769267</v>
+        <v>0.1226959481145009</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04649372177329233</v>
+        <v>0.05438785280795969</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2040116574.249421</v>
+        <v>2459038688.301332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1261324085031565</v>
+        <v>0.1586019987342386</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04232185111008123</v>
+        <v>0.03093583569950284</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2881721784.450256</v>
+        <v>2690522375.179928</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106011374200914</v>
+        <v>0.09246986625477947</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0358763990520074</v>
+        <v>0.05063664421492753</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1937837791.124935</v>
+        <v>1977833790.262722</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1016956984276211</v>
+        <v>0.09609452027994901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03348578980809385</v>
+        <v>0.03695014915426552</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4492180756.566966</v>
+        <v>3233959036.730896</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1276907224990983</v>
+        <v>0.1712911911630786</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02224506946942006</v>
+        <v>0.01940825342370306</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3738286590.786783</v>
+        <v>2524228792.873081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1099869725241047</v>
+        <v>0.08873880381618179</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02006156553337713</v>
+        <v>0.0282116616647547</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3053243854.721224</v>
+        <v>3330977984.309505</v>
       </c>
       <c r="F99" t="n">
-        <v>0.125112744013856</v>
+        <v>0.1255203141611568</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02677054106650373</v>
+        <v>0.03478531965895851</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3619179379.288146</v>
+        <v>4609396677.181034</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1711950416626871</v>
+        <v>0.1530632414040459</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01904193840707076</v>
+        <v>0.02327028740389647</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2230631848.577082</v>
+        <v>3167294683.973387</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1698921819754606</v>
+        <v>0.173958063295119</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05439183041652598</v>
+        <v>0.05652941030017192</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_121.xlsx
+++ b/output/fit_clients/fit_round_121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2320943477.340192</v>
+        <v>2504879237.854749</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07949706205249038</v>
+        <v>0.0843325066356985</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02790017566193209</v>
+        <v>0.03319321255669305</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2148123904.437124</v>
+        <v>1762022774.828696</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1391249283333188</v>
+        <v>0.127468928169405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0464632278670529</v>
+        <v>0.03362253949300205</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4375892503.58577</v>
+        <v>3862022668.280308</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141332453616052</v>
+        <v>0.1152711039844104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03115356003815616</v>
+        <v>0.03568032964211774</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73</v>
+      </c>
+      <c r="J4" t="n">
+        <v>120</v>
+      </c>
+      <c r="K4" t="n">
+        <v>148.6878299213317</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2589302278.180647</v>
+        <v>3830030784.234121</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08044249639123843</v>
+        <v>0.108022896820877</v>
       </c>
       <c r="G5" t="n">
-        <v>0.032811665205883</v>
+        <v>0.04179434098243087</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48</v>
+      </c>
+      <c r="J5" t="n">
+        <v>121</v>
+      </c>
+      <c r="K5" t="n">
+        <v>167.1394543898587</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2343651141.494238</v>
+        <v>2766140675.146792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1179846275062896</v>
+        <v>0.1153703324652631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05307281857373916</v>
+        <v>0.04736038951435623</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2979245514.060807</v>
+        <v>2781701615.439014</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09444093667549815</v>
+        <v>0.06621374215023615</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04899361162190234</v>
+        <v>0.04563611266556135</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3669838031.099464</v>
+        <v>3899064872.070522</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1767591550443602</v>
+        <v>0.1986686768695587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02157253243665041</v>
+        <v>0.02037369923036747</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>121</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1704736811.964067</v>
+        <v>1530325641.962044</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1459133030044771</v>
+        <v>0.187769807494603</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03316665257469403</v>
+        <v>0.03356360624580157</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5228338309.100869</v>
+        <v>4630265397.64467</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2110473249890557</v>
+        <v>0.2158343256046242</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03538048275392759</v>
+        <v>0.04321189473264267</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>110</v>
+      </c>
+      <c r="J10" t="n">
+        <v>121</v>
+      </c>
+      <c r="K10" t="n">
+        <v>166.3254328074854</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3509610857.553456</v>
+        <v>4113560853.187759</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1490592094871213</v>
+        <v>0.1550719345544709</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0383415881623545</v>
+        <v>0.04251818729707982</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51</v>
+      </c>
+      <c r="J11" t="n">
+        <v>121</v>
+      </c>
+      <c r="K11" t="n">
+        <v>164.2408494404592</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2363486312.164994</v>
+        <v>2059608359.906027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1974429333507527</v>
+        <v>0.160496290999007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.035732327968702</v>
+        <v>0.04738558434655081</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +894,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4854512651.116069</v>
+        <v>3243185398.588739</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07040791888837929</v>
+        <v>0.07833344621151543</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02585409311538642</v>
+        <v>0.0252494743018302</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>59</v>
+      </c>
+      <c r="J13" t="n">
+        <v>120</v>
+      </c>
+      <c r="K13" t="n">
+        <v>104.5275749545674</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3567474828.814959</v>
+        <v>3730396434.647943</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1220079671981505</v>
+        <v>0.116397219006289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04083518946517039</v>
+        <v>0.0356431439455315</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1764501364.074085</v>
+        <v>1670363850.177544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1048784269730147</v>
+        <v>0.08483575496454503</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04152179664906969</v>
+        <v>0.03826339982747497</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2490110970.177176</v>
+        <v>1923755199.241523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07439762555457724</v>
+        <v>0.1122978030922929</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03876362597918605</v>
+        <v>0.03410048874694507</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3424383965.292643</v>
+        <v>3887704163.690713</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1296313801336213</v>
+        <v>0.1268288403751288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03662062005916915</v>
+        <v>0.04555831984415977</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>58</v>
+      </c>
+      <c r="J17" t="n">
+        <v>121</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3079281638.888378</v>
+        <v>3568051117.238927</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611941380117431</v>
+        <v>0.1208437481253031</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03162282888028042</v>
+        <v>0.02373503230720169</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>119</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1326663367.192873</v>
+        <v>1024948329.340154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1619958415304157</v>
+        <v>0.1724348910297929</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02539889408618093</v>
+        <v>0.02700203629180611</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2782067554.421224</v>
+        <v>2218337703.367128</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1227642470732015</v>
+        <v>0.1470376312838941</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02352289262424347</v>
+        <v>0.03134790830443737</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1678170216.668878</v>
+        <v>1958893568.490063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07692274181979664</v>
+        <v>0.07841842349813687</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03388761082698574</v>
+        <v>0.04449419098723919</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3595315692.728352</v>
+        <v>2630137140.720694</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112496801305188</v>
+        <v>0.1230919516836597</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04953048925410738</v>
+        <v>0.04459877339532732</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64.7585252195058</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1153532609.410714</v>
+        <v>1364136691.218915</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1560027778310235</v>
+        <v>0.1576216605451425</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03304747318797105</v>
+        <v>0.04749980322752818</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3080725387.573578</v>
+        <v>3771231043.351912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1369474928450411</v>
+        <v>0.1281425987030763</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03347731509565748</v>
+        <v>0.02273358889109759</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>36</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1473250255.137096</v>
+        <v>1081081762.544805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1076084255429584</v>
+        <v>0.1192443159204271</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02267028381766194</v>
+        <v>0.02538953261116846</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1242523739.970331</v>
+        <v>1058264170.918259</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1199459979840582</v>
+        <v>0.08296557583968889</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02370502103597103</v>
+        <v>0.03538128686944823</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3471384226.366729</v>
+        <v>2923164708.752452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1391081339501834</v>
+        <v>0.1483998909903759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02201785226189426</v>
+        <v>0.02086813855779657</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>48</v>
+      </c>
+      <c r="J27" t="n">
+        <v>120</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.62722326525495</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3379949139.66411</v>
+        <v>3060217662.759192</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1370679429091344</v>
+        <v>0.1102247593438267</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03721249994471073</v>
+        <v>0.03625344967516831</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>117</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4286648278.302899</v>
+        <v>3621871694.890252</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121812863648173</v>
+        <v>0.1009812172983425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04508421163934228</v>
+        <v>0.03150528747796881</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>112</v>
+      </c>
+      <c r="J29" t="n">
+        <v>121</v>
+      </c>
+      <c r="K29" t="n">
+        <v>159.4589489649152</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2353141189.20618</v>
+        <v>1810686276.534181</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223353213505744</v>
+        <v>0.1013768871161536</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02449161409218324</v>
+        <v>0.0313824373190067</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>934982363.888965</v>
+        <v>1208428506.136462</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07980164283936059</v>
+        <v>0.1124950655727683</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04242496215049131</v>
+        <v>0.04216610761884862</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1688816069.971018</v>
+        <v>1299690381.676096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1154780430892566</v>
+        <v>0.1147226788069153</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03825517510146926</v>
+        <v>0.0267302554028411</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2757555208.832049</v>
+        <v>2030165985.045489</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1439173855704405</v>
+        <v>0.1455261836102893</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05405421197644768</v>
+        <v>0.04930147942574342</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1544565215.272366</v>
+        <v>967874234.6391665</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1213673419565799</v>
+        <v>0.1141493340963925</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02569521219513025</v>
+        <v>0.02667931425295017</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950218493.71482</v>
+        <v>969035033.6951308</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1146473440748937</v>
+        <v>0.1048179640104376</v>
       </c>
       <c r="G35" t="n">
-        <v>0.033478172746689</v>
+        <v>0.04136927376619644</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3139372034.700105</v>
+        <v>3024348413.201339</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1255780825150327</v>
+        <v>0.1159394904028546</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02870328364809765</v>
+        <v>0.02878395965155336</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1907544732.072549</v>
+        <v>2121500990.213583</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08677227455898032</v>
+        <v>0.09420790812750471</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03504765341373894</v>
+        <v>0.03972976817739782</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1408988532.90952</v>
+        <v>2190625972.592254</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1102553360881958</v>
+        <v>0.08543491998756696</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02615136160059985</v>
+        <v>0.03955499836221799</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989056647.186786</v>
+        <v>1982467101.182828</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1453464155670728</v>
+        <v>0.1261597532380385</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02153873720738746</v>
+        <v>0.0273370618029577</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1171731924.912456</v>
+        <v>1137938427.397264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1547930768600194</v>
+        <v>0.141613026062051</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04583922367250497</v>
+        <v>0.03799545244197944</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2087575787.332007</v>
+        <v>1971334700.55054</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1035968169514168</v>
+        <v>0.1461551586782764</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0420705617389044</v>
+        <v>0.03945785079538693</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3869893322.675068</v>
+        <v>3885409756.471978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1222952671004982</v>
+        <v>0.1237848567836375</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04063103494465993</v>
+        <v>0.04507759105661664</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43</v>
+      </c>
+      <c r="J42" t="n">
+        <v>121</v>
+      </c>
+      <c r="K42" t="n">
+        <v>154.7979132747491</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2239414070.682238</v>
+        <v>2036041212.007488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1875317903190615</v>
+        <v>0.1354651646303752</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02272304592028747</v>
+        <v>0.02109357434846768</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1488331725.032564</v>
+        <v>1828268711.39841</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06894078775602955</v>
+        <v>0.06514244449708584</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02760746114516981</v>
+        <v>0.03310655468898938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2355512273.106531</v>
+        <v>2470788360.535926</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1944032445861665</v>
+        <v>0.1757274458287265</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03954664640922096</v>
+        <v>0.04076618719086493</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2059,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4811813306.500627</v>
+        <v>5729126160.973392</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1166281505946702</v>
+        <v>0.1493204553406129</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03707704644393384</v>
+        <v>0.05524848366754118</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>70</v>
+      </c>
+      <c r="J46" t="n">
+        <v>120</v>
+      </c>
+      <c r="K46" t="n">
+        <v>151.9571332393992</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4910864600.585004</v>
+        <v>3928645320.972408</v>
       </c>
       <c r="F47" t="n">
-        <v>0.156270233394157</v>
+        <v>0.156885479206261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05052379534785871</v>
+        <v>0.04555008650092547</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>53</v>
+      </c>
+      <c r="J47" t="n">
+        <v>121</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3203956507.192883</v>
+        <v>3909620987.874817</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09826752553777095</v>
+        <v>0.078168255127484</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0386311805021869</v>
+        <v>0.02759887846399803</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
+        <v>121</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1638925858.243619</v>
+        <v>1694442330.968392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1947062560405518</v>
+        <v>0.1544866852191102</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03830882095837496</v>
+        <v>0.0410294915493003</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2565546226.75623</v>
+        <v>2662595612.929701</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1274303058744759</v>
+        <v>0.1682355126971238</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04349822299020597</v>
+        <v>0.05259651409603701</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>120</v>
+      </c>
+      <c r="K50" t="n">
+        <v>72.16765230311918</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198319459.01468</v>
+        <v>1035581030.136999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1503383674038428</v>
+        <v>0.1795013346372369</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0532071277169673</v>
+        <v>0.04845907632421362</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3676251729.830747</v>
+        <v>5242829280.776016</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1029353852453908</v>
+        <v>0.1191581884830424</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04024047036586573</v>
+        <v>0.04687619171125082</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>94</v>
+      </c>
+      <c r="J52" t="n">
+        <v>120</v>
+      </c>
+      <c r="K52" t="n">
+        <v>154.6822630027962</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2442330689.04914</v>
+        <v>3776273626.603567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1514485324236507</v>
+        <v>0.1634283272368723</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03214592885393899</v>
+        <v>0.02555933012581132</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4332163082.045661</v>
+        <v>4985527259.073626</v>
       </c>
       <c r="F54" t="n">
-        <v>0.141021959245278</v>
+        <v>0.1610950761870078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04353544559229839</v>
+        <v>0.03202004133528753</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>55</v>
+      </c>
+      <c r="J54" t="n">
+        <v>121</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4291016407.909949</v>
+        <v>4651634588.730957</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1986539629537762</v>
+        <v>0.2175218015900698</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0308304146069852</v>
+        <v>0.02459472031678955</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>55</v>
+      </c>
+      <c r="J55" t="n">
+        <v>121</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1612908716.147382</v>
+        <v>1661953385.824137</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1106688114184287</v>
+        <v>0.1376450350181353</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03720743569991297</v>
+        <v>0.04638417201453499</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4009074204.422905</v>
+        <v>2984013289.129494</v>
       </c>
       <c r="F57" t="n">
-        <v>0.182610754105784</v>
+        <v>0.1805333121032553</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01707072940622821</v>
+        <v>0.01774243651192459</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1463866450.381857</v>
+        <v>1503137912.508658</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2003581256637806</v>
+        <v>0.1275786518400653</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0294259613469585</v>
+        <v>0.02530177760820261</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3378617335.397251</v>
+        <v>3583770295.558618</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1210959908107195</v>
+        <v>0.1169985214225765</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0352155975705235</v>
+        <v>0.03103233477276889</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>59</v>
+      </c>
+      <c r="J59" t="n">
+        <v>120</v>
+      </c>
+      <c r="K59" t="n">
+        <v>123.3095473970107</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3717583944.920326</v>
+        <v>2769586967.310415</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808530271678785</v>
+        <v>0.1998465740765554</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02987774721018179</v>
+        <v>0.02014316528017743</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2194025860.045515</v>
+        <v>3209250232.547402</v>
       </c>
       <c r="F61" t="n">
-        <v>0.147917854814286</v>
+        <v>0.1331507188398369</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03129073804273146</v>
+        <v>0.02058902518060034</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336384388.710266</v>
+        <v>1911602275.079078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1816985923128856</v>
+        <v>0.1307568580777273</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03443891877362742</v>
+        <v>0.03188213053420999</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3771724582.888532</v>
+        <v>4618302317.093374</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08064290367908666</v>
+        <v>0.07802222546716507</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04646983809634722</v>
+        <v>0.0467305288211305</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>60</v>
+      </c>
+      <c r="J63" t="n">
+        <v>120</v>
+      </c>
+      <c r="K63" t="n">
+        <v>137.1122470926113</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4448889829.332432</v>
+        <v>4673231761.853505</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1376135995719761</v>
+        <v>0.1417441322859648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0255344450154455</v>
+        <v>0.02655789455734056</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>60</v>
+      </c>
+      <c r="J64" t="n">
+        <v>120</v>
+      </c>
+      <c r="K64" t="n">
+        <v>145.5223991369537</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4740871431.050706</v>
+        <v>5995475408.891366</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1295277429842812</v>
+        <v>0.137387404700259</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02946734713383575</v>
+        <v>0.02416066900672955</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="n">
+        <v>121</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4798724779.427068</v>
+        <v>4040917543.056747</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256434921201893</v>
+        <v>0.1305987338351409</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04105811603913069</v>
+        <v>0.03515666196070801</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>59</v>
+      </c>
+      <c r="J66" t="n">
+        <v>121</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2301386436.381709</v>
+        <v>3012639826.445945</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08878524913343568</v>
+        <v>0.08528118492961588</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05031413794514593</v>
+        <v>0.04005480189683566</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3800763347.419625</v>
+        <v>4260366503.485559</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1216794884243214</v>
+        <v>0.1179634158798501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03412436098257964</v>
+        <v>0.04327708908551073</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>60</v>
+      </c>
+      <c r="J68" t="n">
+        <v>121</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1553811761.467545</v>
+        <v>1966439824.111263</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1112108211575261</v>
+        <v>0.1425979308829477</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05998257917810053</v>
+        <v>0.04961407274890832</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3537407894.00561</v>
+        <v>2388164804.402321</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06794742834873078</v>
+        <v>0.07112459837450943</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04058576718305427</v>
+        <v>0.038676293802726</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4046210187.160144</v>
+        <v>3484104499.737867</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1324515837794644</v>
+        <v>0.1784688088235407</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02775849820260933</v>
+        <v>0.02693280914550623</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>98</v>
+      </c>
+      <c r="J71" t="n">
+        <v>120</v>
+      </c>
+      <c r="K71" t="n">
+        <v>127.4242790396286</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1971834994.568613</v>
+        <v>2145275063.043995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07814834513590817</v>
+        <v>0.1015404766214459</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04607457568474584</v>
+        <v>0.05269869285194988</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2703468891.208465</v>
+        <v>2731432414.348595</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091980059043647</v>
+        <v>0.09068201372592526</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05270896550970024</v>
+        <v>0.03953550954231834</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2645545033.17812</v>
+        <v>3679998273.7211</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1248166648907289</v>
+        <v>0.1845216367271414</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02268164503319458</v>
+        <v>0.02227071045302688</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>41</v>
+      </c>
+      <c r="J74" t="n">
+        <v>120</v>
+      </c>
+      <c r="K74" t="n">
+        <v>138.1814664851546</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2153678190.138993</v>
+        <v>1732243922.589236</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1048954430498384</v>
+        <v>0.1012407638513906</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03685773654184086</v>
+        <v>0.03228615162463837</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3692807068.490069</v>
+        <v>4841278560.929159</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155015945348987</v>
+        <v>0.07603448401952816</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02453907396134506</v>
+        <v>0.02230068226905917</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>56</v>
+      </c>
+      <c r="J76" t="n">
+        <v>121</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1675653962.396698</v>
+        <v>2168343192.092099</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1799014382668544</v>
+        <v>0.1726798525538446</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02184919094084843</v>
+        <v>0.02915359080960397</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2935831364.459005</v>
+        <v>3625959054.22226</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1223330598482885</v>
+        <v>0.08285189309217873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03667384033245197</v>
+        <v>0.04324439657333168</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" t="n">
+        <v>119</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1359587909.189605</v>
+        <v>1667374919.339399</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1317797369192729</v>
+        <v>0.1096673387518214</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03364413057106074</v>
+        <v>0.0367834468424855</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4321338425.290318</v>
+        <v>5086781255.984982</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072614879659054</v>
+        <v>0.1109290617755103</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02879198679575926</v>
+        <v>0.0283741028176137</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>58</v>
+      </c>
+      <c r="J80" t="n">
+        <v>121</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4308369495.556216</v>
+        <v>4074342388.885447</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1298981004469401</v>
+        <v>0.1316702316621869</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02113785128684065</v>
+        <v>0.02338624469702303</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" t="n">
+        <v>121</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5426462484.188321</v>
+        <v>3700637859.262696</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1949041545700854</v>
+        <v>0.2016831095547328</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01785299590240092</v>
+        <v>0.02077401739537064</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>84</v>
+      </c>
+      <c r="J82" t="n">
+        <v>120</v>
+      </c>
+      <c r="K82" t="n">
+        <v>149.7748840473965</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2144665304.48425</v>
+        <v>1864722650.503997</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1288999227223204</v>
+        <v>0.1383403804920972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03693419945103119</v>
+        <v>0.03174881106445102</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2196559473.626424</v>
+        <v>1711604774.646646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09099984294793526</v>
+        <v>0.1009902461835636</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04756133271659242</v>
+        <v>0.04151546474127806</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2940474065.962027</v>
+        <v>3215548905.38607</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1353619466663952</v>
+        <v>0.1526391193673574</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03871500950190923</v>
+        <v>0.04759047256174544</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2065821115.281235</v>
+        <v>2232225544.564263</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1136254250264453</v>
+        <v>0.1376407207597857</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01869665876415791</v>
+        <v>0.02146925012046711</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1147825195.109519</v>
+        <v>1325251875.268594</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1445361473944527</v>
+        <v>0.1878053896686991</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02794107596391764</v>
+        <v>0.03744734265692562</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2314317496.186922</v>
+        <v>3656537623.068837</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1641967937065435</v>
+        <v>0.1470056764797352</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03028531111218428</v>
+        <v>0.03977702131446425</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2313301151.124722</v>
+        <v>2498166140.829535</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1419609514425699</v>
+        <v>0.1318527545262428</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03941349882975326</v>
+        <v>0.02723675224629383</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1697772897.841481</v>
+        <v>1994354845.713052</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09698117086199139</v>
+        <v>0.1009602780879341</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04012447415592216</v>
+        <v>0.04556246474662785</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1823076920.274401</v>
+        <v>2065897778.95395</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1748087371978898</v>
+        <v>0.1535972128370644</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05723694362966508</v>
+        <v>0.05342101614235141</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2893054127.363364</v>
+        <v>1839320280.684461</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07463084575418578</v>
+        <v>0.09081628646134475</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04073331760430302</v>
+        <v>0.04383296923503856</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3183911621.564287</v>
+        <v>3512101197.710929</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1226959481145009</v>
+        <v>0.1097646266608424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05438785280795969</v>
+        <v>0.03774100138453623</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>55</v>
+      </c>
+      <c r="J93" t="n">
+        <v>119</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2459038688.301332</v>
+        <v>1830026721.730995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1586019987342386</v>
+        <v>0.1556412863264967</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03093583569950284</v>
+        <v>0.04139728489323031</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2690522375.179928</v>
+        <v>3069709172.331271</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09246986625477947</v>
+        <v>0.1072991894376295</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05063664421492753</v>
+        <v>0.0485796691100077</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1977833790.262722</v>
+        <v>1946147774.336327</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09609452027994901</v>
+        <v>0.101606057175299</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03695014915426552</v>
+        <v>0.0340010735320179</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3233959036.730896</v>
+        <v>4133818981.388175</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1712911911630786</v>
+        <v>0.1175505928464652</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01940825342370306</v>
+        <v>0.02137511107361166</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>58</v>
+      </c>
+      <c r="J97" t="n">
+        <v>120</v>
+      </c>
+      <c r="K97" t="n">
+        <v>148.3778211040628</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2524228792.873081</v>
+        <v>3795212807.764879</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08873880381618179</v>
+        <v>0.121765962856935</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0282116616647547</v>
+        <v>0.02723556098104428</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3330977984.309505</v>
+        <v>2933498080.628461</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255203141611568</v>
+        <v>0.09061264693733631</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03478531965895851</v>
+        <v>0.02888932873671505</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4609396677.181034</v>
+        <v>4300377449.389579</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1530632414040459</v>
+        <v>0.1622881538793758</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02327028740389647</v>
+        <v>0.02008741446810986</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>50</v>
+      </c>
+      <c r="J100" t="n">
+        <v>120</v>
+      </c>
+      <c r="K100" t="n">
+        <v>139.4952690186596</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3167294683.973387</v>
+        <v>2543876382.529493</v>
       </c>
       <c r="F101" t="n">
-        <v>0.173958063295119</v>
+        <v>0.1926946257424918</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05652941030017192</v>
+        <v>0.03527062702579255</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
